--- a/data/pca/factorExposure/factorExposure_2012-09-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002100444502336438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001928224401592341</v>
+      </c>
+      <c r="C2">
+        <v>0.02833288639865696</v>
+      </c>
+      <c r="D2">
+        <v>-0.005112875941450391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5.889835961551448e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006746514802486141</v>
+      </c>
+      <c r="C4">
+        <v>0.08272498155002607</v>
+      </c>
+      <c r="D4">
+        <v>-0.06946103407694856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005252432667705777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01461894548425739</v>
+      </c>
+      <c r="C6">
+        <v>0.1172302401297647</v>
+      </c>
+      <c r="D6">
+        <v>-0.02086024305938142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0009520331158827535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00503823951286791</v>
+      </c>
+      <c r="C7">
+        <v>0.05886859254585457</v>
+      </c>
+      <c r="D7">
+        <v>-0.03379698484325191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001804249385200165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006085845301172784</v>
+      </c>
+      <c r="C8">
+        <v>0.03528805778836153</v>
+      </c>
+      <c r="D8">
+        <v>-0.04144577319031022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.000934659031885282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005396411164030587</v>
+      </c>
+      <c r="C9">
+        <v>0.07077362575575995</v>
+      </c>
+      <c r="D9">
+        <v>-0.07520371709270153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002642233868069203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004036816204556736</v>
+      </c>
+      <c r="C10">
+        <v>0.05239738110830126</v>
+      </c>
+      <c r="D10">
+        <v>0.1863759699350611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001600736172778454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005779474421931762</v>
+      </c>
+      <c r="C11">
+        <v>0.07928738167000697</v>
+      </c>
+      <c r="D11">
+        <v>-0.06580275349148744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006996317904337771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004517623711367146</v>
+      </c>
+      <c r="C12">
+        <v>0.064960921771654</v>
+      </c>
+      <c r="D12">
+        <v>-0.05093272013214793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001790596701169744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008693222989646733</v>
+      </c>
+      <c r="C13">
+        <v>0.06982787075447995</v>
+      </c>
+      <c r="D13">
+        <v>-0.05932423418673403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001914379164572539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007890430277475308</v>
+      </c>
+      <c r="C14">
+        <v>0.04251434912482582</v>
+      </c>
+      <c r="D14">
+        <v>-0.01222964955243621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001094516599935561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005966051572134224</v>
+      </c>
+      <c r="C15">
+        <v>0.03976162371191069</v>
+      </c>
+      <c r="D15">
+        <v>-0.03058439793143292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0001470652946523318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005143788741269595</v>
+      </c>
+      <c r="C16">
+        <v>0.06404984310066016</v>
+      </c>
+      <c r="D16">
+        <v>-0.05736410340476768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002289752619828981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008642615641662434</v>
+      </c>
+      <c r="C20">
+        <v>0.0630551427555342</v>
+      </c>
+      <c r="D20">
+        <v>-0.05331325047664316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005567292179611952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009490892486493522</v>
+      </c>
+      <c r="C21">
+        <v>0.01963893671692682</v>
+      </c>
+      <c r="D21">
+        <v>-0.04045538977904167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01911639183084521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006766891162668814</v>
+      </c>
+      <c r="C22">
+        <v>0.08705027560909226</v>
+      </c>
+      <c r="D22">
+        <v>-0.1244018969406731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01878016986112762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006460762488270593</v>
+      </c>
+      <c r="C23">
+        <v>0.08742766432105012</v>
+      </c>
+      <c r="D23">
+        <v>-0.1255279239647326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001873754371965357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005669184446671947</v>
+      </c>
+      <c r="C24">
+        <v>0.0762090092388175</v>
+      </c>
+      <c r="D24">
+        <v>-0.06799368556564532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003323564882880813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003209241590765532</v>
+      </c>
+      <c r="C25">
+        <v>0.07777682425567643</v>
+      </c>
+      <c r="D25">
+        <v>-0.06733263990617817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00193493082708564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003468412380414907</v>
+      </c>
+      <c r="C26">
+        <v>0.03837213038337343</v>
+      </c>
+      <c r="D26">
+        <v>-0.02458227121098835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006303403205380889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001776771223782229</v>
+      </c>
+      <c r="C28">
+        <v>0.1045033570975053</v>
+      </c>
+      <c r="D28">
+        <v>0.3249905870669922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001228387492050863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002827209534647801</v>
+      </c>
+      <c r="C29">
+        <v>0.04753946608441334</v>
+      </c>
+      <c r="D29">
+        <v>-0.01133412302274705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002840681544633202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00947251571599231</v>
+      </c>
+      <c r="C30">
+        <v>0.141333664133752</v>
+      </c>
+      <c r="D30">
+        <v>-0.1120487953100984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00194984032557118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006378487579077055</v>
+      </c>
+      <c r="C31">
+        <v>0.04321161407770461</v>
+      </c>
+      <c r="D31">
+        <v>-0.03285843904732216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001156419711172189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003764097098591845</v>
+      </c>
+      <c r="C32">
+        <v>0.04010840417012419</v>
+      </c>
+      <c r="D32">
+        <v>-0.02069966438522673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0001048500282110509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008902063855800363</v>
+      </c>
+      <c r="C33">
+        <v>0.08886424840341124</v>
+      </c>
+      <c r="D33">
+        <v>-0.06543098784579163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001730293809567814</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004245852362879246</v>
+      </c>
+      <c r="C34">
+        <v>0.05754663813278857</v>
+      </c>
+      <c r="D34">
+        <v>-0.05905689460771879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001889653195976218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005329264113423819</v>
+      </c>
+      <c r="C35">
+        <v>0.04064738068062772</v>
+      </c>
+      <c r="D35">
+        <v>-0.01868283139833725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004740019013257876</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001350306087953247</v>
+      </c>
+      <c r="C36">
+        <v>0.02462987019136771</v>
+      </c>
+      <c r="D36">
+        <v>-0.02555786639082303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002762354256890378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009022025945234088</v>
+      </c>
+      <c r="C38">
+        <v>0.04064074128464366</v>
+      </c>
+      <c r="D38">
+        <v>-0.01102685898640335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01119676079440257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001760906945840774</v>
+      </c>
+      <c r="C39">
+        <v>0.1105390184554817</v>
+      </c>
+      <c r="D39">
+        <v>-0.08038464028733212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003063216723203618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003573907808892365</v>
+      </c>
+      <c r="C40">
+        <v>0.0905194150141911</v>
+      </c>
+      <c r="D40">
+        <v>-0.01683208220399632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001857804391015383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007279720774597979</v>
+      </c>
+      <c r="C41">
+        <v>0.03987856774307334</v>
+      </c>
+      <c r="D41">
+        <v>-0.04007706869567008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001726353191587376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003695656629614138</v>
+      </c>
+      <c r="C43">
+        <v>0.05329693768660985</v>
+      </c>
+      <c r="D43">
+        <v>-0.02828431562770754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006388344143432052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002709684699783871</v>
+      </c>
+      <c r="C44">
+        <v>0.1031168862731534</v>
+      </c>
+      <c r="D44">
+        <v>-0.06882528583549377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001220184404430527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001681999816533846</v>
+      </c>
+      <c r="C46">
+        <v>0.03256784457430221</v>
+      </c>
+      <c r="D46">
+        <v>-0.03476179945098697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000754480815993395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002243328173846448</v>
+      </c>
+      <c r="C47">
+        <v>0.03494688901897462</v>
+      </c>
+      <c r="D47">
+        <v>-0.02381437320611743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003587611688037718</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006896849990898848</v>
+      </c>
+      <c r="C48">
+        <v>0.03156150353648758</v>
+      </c>
+      <c r="D48">
+        <v>-0.03489851487549124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003723840326641242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01671303927640689</v>
+      </c>
+      <c r="C49">
+        <v>0.1877393954877682</v>
+      </c>
+      <c r="D49">
+        <v>-0.006759480691783722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009324089077748502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003766813965845332</v>
+      </c>
+      <c r="C50">
+        <v>0.04276054282380479</v>
+      </c>
+      <c r="D50">
+        <v>-0.04009317582150169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003415951247098683</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004247918066363053</v>
+      </c>
+      <c r="C51">
+        <v>0.02577965715125294</v>
+      </c>
+      <c r="D51">
+        <v>-0.02298467491268323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007888550757532727</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02165221284251148</v>
+      </c>
+      <c r="C53">
+        <v>0.1716286480909018</v>
+      </c>
+      <c r="D53">
+        <v>-0.02107637371783607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004165252875164564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009505244063473688</v>
+      </c>
+      <c r="C54">
+        <v>0.05592258503850778</v>
+      </c>
+      <c r="D54">
+        <v>-0.04190614228306466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001137607176050964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009839971762157939</v>
+      </c>
+      <c r="C55">
+        <v>0.1080737689101991</v>
+      </c>
+      <c r="D55">
+        <v>-0.0372143856485478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007926315851930762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02064619992709436</v>
+      </c>
+      <c r="C56">
+        <v>0.1748226856418612</v>
+      </c>
+      <c r="D56">
+        <v>-0.01484963627706726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003752625174410499</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01913930452131425</v>
+      </c>
+      <c r="C58">
+        <v>0.1050238187487594</v>
+      </c>
+      <c r="D58">
+        <v>-0.0679031319396297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001766918776932706</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009866303576931643</v>
+      </c>
+      <c r="C59">
+        <v>0.1684856088476819</v>
+      </c>
+      <c r="D59">
+        <v>0.3427843788338779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.006319337026560208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02468654296540844</v>
+      </c>
+      <c r="C60">
+        <v>0.2262107791122946</v>
+      </c>
+      <c r="D60">
+        <v>-0.01767241408888471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01035850613798915</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001911691350432853</v>
+      </c>
+      <c r="C61">
+        <v>0.09332258906436713</v>
+      </c>
+      <c r="D61">
+        <v>-0.05846890215174026</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1477566166729467</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1505542971207581</v>
+      </c>
+      <c r="C62">
+        <v>0.09979940936674324</v>
+      </c>
+      <c r="D62">
+        <v>-0.01771129619434381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001342088215016859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006758278472175181</v>
+      </c>
+      <c r="C63">
+        <v>0.05314870230976023</v>
+      </c>
+      <c r="D63">
+        <v>-0.03412257550432153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.008937639252470708</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01657755674091186</v>
+      </c>
+      <c r="C64">
+        <v>0.1049673742822715</v>
+      </c>
+      <c r="D64">
+        <v>-0.05635060751502353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008154229711914793</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01777244979610609</v>
+      </c>
+      <c r="C65">
+        <v>0.1209687731783087</v>
+      </c>
+      <c r="D65">
+        <v>-0.02980356776702272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001780444259139742</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01307692069210959</v>
+      </c>
+      <c r="C66">
+        <v>0.1582497523331136</v>
+      </c>
+      <c r="D66">
+        <v>-0.1122529528097513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006067794537238245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01545859170083222</v>
+      </c>
+      <c r="C67">
+        <v>0.07299880719638685</v>
+      </c>
+      <c r="D67">
+        <v>-0.0211450435392588</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004058103344076962</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0006537600386989689</v>
+      </c>
+      <c r="C68">
+        <v>0.08646719144195678</v>
+      </c>
+      <c r="D68">
+        <v>0.2575439943533118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001815262810463556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006439691653597813</v>
+      </c>
+      <c r="C69">
+        <v>0.05252980679650923</v>
+      </c>
+      <c r="D69">
+        <v>-0.03861382332312178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001264868008508049</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002452952538165249</v>
+      </c>
+      <c r="C70">
+        <v>0.007884962257272702</v>
+      </c>
+      <c r="D70">
+        <v>0.0005438752750821594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0006328108316747696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005259386262364214</v>
+      </c>
+      <c r="C71">
+        <v>0.09048497920077202</v>
+      </c>
+      <c r="D71">
+        <v>0.301340773812166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00367495746245715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01739206331932559</v>
+      </c>
+      <c r="C72">
+        <v>0.1576522268973279</v>
+      </c>
+      <c r="D72">
+        <v>-0.007959880014919566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009295071665200829</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03097563601867928</v>
+      </c>
+      <c r="C73">
+        <v>0.2819604298682057</v>
+      </c>
+      <c r="D73">
+        <v>-0.05108023444574081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005433719539706245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002005948265949548</v>
+      </c>
+      <c r="C74">
+        <v>0.1019723948954044</v>
+      </c>
+      <c r="D74">
+        <v>-0.03473787665523006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001200815272016623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01107602329100094</v>
+      </c>
+      <c r="C75">
+        <v>0.1211569099845265</v>
+      </c>
+      <c r="D75">
+        <v>-0.02865607226243398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01081103161231783</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02249085813172846</v>
+      </c>
+      <c r="C76">
+        <v>0.1463490798789691</v>
+      </c>
+      <c r="D76">
+        <v>-0.05902408234000178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004775380449069377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02060713657839559</v>
+      </c>
+      <c r="C77">
+        <v>0.1135879028014475</v>
+      </c>
+      <c r="D77">
+        <v>-0.05701040452463154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.006077812839540035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01461793323411663</v>
+      </c>
+      <c r="C78">
+        <v>0.09797177094292968</v>
+      </c>
+      <c r="D78">
+        <v>-0.0801093272710766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.026357424520753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03871113553274436</v>
+      </c>
+      <c r="C79">
+        <v>0.1558796699927935</v>
+      </c>
+      <c r="D79">
+        <v>-0.03352371744555428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006357038794326551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009583643952202722</v>
+      </c>
+      <c r="C80">
+        <v>0.03971290529851047</v>
+      </c>
+      <c r="D80">
+        <v>-0.03095215448674109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004585981583580552</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01586157334693767</v>
+      </c>
+      <c r="C81">
+        <v>0.1292254955364478</v>
+      </c>
+      <c r="D81">
+        <v>-0.03998415986713624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007266897678827904</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01958417408279491</v>
+      </c>
+      <c r="C82">
+        <v>0.1374279660041172</v>
+      </c>
+      <c r="D82">
+        <v>-0.03987878286904428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003856336649382125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01204975833324588</v>
+      </c>
+      <c r="C83">
+        <v>0.06353480353054147</v>
+      </c>
+      <c r="D83">
+        <v>-0.04645291641960209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.009919645866397269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01160875680462671</v>
+      </c>
+      <c r="C84">
+        <v>0.03739315473258838</v>
+      </c>
+      <c r="D84">
+        <v>0.005600885854270843</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01811954045334897</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02908550579918067</v>
+      </c>
+      <c r="C85">
+        <v>0.1233510666129953</v>
+      </c>
+      <c r="D85">
+        <v>-0.04084333024164246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002834765926751341</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003682206183187127</v>
+      </c>
+      <c r="C86">
+        <v>0.0494534188026798</v>
+      </c>
+      <c r="D86">
+        <v>-0.02882387437784439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0007737168599172474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01101644222827896</v>
+      </c>
+      <c r="C87">
+        <v>0.1270090768366412</v>
+      </c>
+      <c r="D87">
+        <v>-0.07759509647306825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009404309382461232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00306531466380798</v>
+      </c>
+      <c r="C88">
+        <v>0.06227899392812108</v>
+      </c>
+      <c r="D88">
+        <v>-0.0312380824685403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01068280828972052</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002529889111978788</v>
+      </c>
+      <c r="C89">
+        <v>0.1367560058076852</v>
+      </c>
+      <c r="D89">
+        <v>0.3131177844662461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001728137400379796</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006076479152634431</v>
+      </c>
+      <c r="C90">
+        <v>0.119449742432352</v>
+      </c>
+      <c r="D90">
+        <v>0.3125527452246041</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002135524412095121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01114811573561918</v>
+      </c>
+      <c r="C91">
+        <v>0.09938011697114339</v>
+      </c>
+      <c r="D91">
+        <v>-0.02876237538716713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005297929032587708</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0002974562513529386</v>
+      </c>
+      <c r="C92">
+        <v>0.1332885455230044</v>
+      </c>
+      <c r="D92">
+        <v>0.326428525716639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001359728375909823</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003718188108387246</v>
+      </c>
+      <c r="C93">
+        <v>0.1050791287723615</v>
+      </c>
+      <c r="D93">
+        <v>0.2991520575723761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01001831380482912</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0220804854155108</v>
+      </c>
+      <c r="C94">
+        <v>0.1417530071998733</v>
+      </c>
+      <c r="D94">
+        <v>-0.05533546290157726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006415393780002122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01621073593723588</v>
+      </c>
+      <c r="C95">
+        <v>0.1206378274338667</v>
+      </c>
+      <c r="D95">
+        <v>-0.06816651664555411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01679804113113687</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03714700223076514</v>
+      </c>
+      <c r="C97">
+        <v>0.2272391320178398</v>
+      </c>
+      <c r="D97">
+        <v>-0.0003016691032008495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01155407592303836</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0383796607219306</v>
+      </c>
+      <c r="C98">
+        <v>0.2609623013886199</v>
+      </c>
+      <c r="D98">
+        <v>-0.02636539487379157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9869946314187227</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810913066218294</v>
+      </c>
+      <c r="C99">
+        <v>-0.1202778316150391</v>
+      </c>
+      <c r="D99">
+        <v>0.02410449235358961</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001211687266684011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002807481687913462</v>
+      </c>
+      <c r="C101">
+        <v>0.04764760388410075</v>
+      </c>
+      <c r="D101">
+        <v>-0.01181148391751408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
